--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Semi_Final/Datamatics Global Services Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Semi_Final/Datamatics Global Services Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Datamatics Global Services(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Datamatics Global Services(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Datamatics Global Services(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,49 +278,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>20.3</v>
-      </c>
-      <c r="C2">
-        <v>186.62</v>
       </c>
       <c r="D2">
         <v>186.62</v>
       </c>
       <c r="E2">
+        <v>186.62</v>
+      </c>
+      <c r="F2">
         <v>206.92</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.81</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>13.39</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>222.93</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>21.62</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>25.22</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>171.79</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>51.14</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>222.93</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>20.31</v>
-      </c>
-      <c r="C3">
-        <v>203.96</v>
       </c>
       <c r="D3">
         <v>203.96</v>
       </c>
       <c r="E3">
+        <v>203.96</v>
+      </c>
+      <c r="F3">
         <v>224.27</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4.58</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15.38</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>242.54</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22.08</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>28.66</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>182.67</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>59.87</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>242.54</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>20.36</v>
-      </c>
-      <c r="C4">
-        <v>218.72</v>
       </c>
       <c r="D4">
         <v>218.72</v>
       </c>
       <c r="E4">
+        <v>218.72</v>
+      </c>
+      <c r="F4">
         <v>239.08</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10.71</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>12.38</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>254.79</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>21.79</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>30.37</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>199.29</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>55.5</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>254.79</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>20.36</v>
-      </c>
-      <c r="C5">
-        <v>229.09</v>
       </c>
       <c r="D5">
         <v>229.09</v>
       </c>
       <c r="E5">
+        <v>229.09</v>
+      </c>
+      <c r="F5">
         <v>249.45</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.63</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>12.06</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>265.66</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>25.43</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>38.3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>212.75</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>52.9</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>265.66</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>50.11</v>
-      </c>
-      <c r="C6">
-        <v>255.94</v>
       </c>
       <c r="D6">
         <v>255.94</v>
       </c>
       <c r="E6">
+        <v>255.94</v>
+      </c>
+      <c r="F6">
         <v>306.05</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>24.15</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>48.55</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>358.26</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>62.4</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>79.94</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>240.66</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>117.61</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>358.26</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>29.47</v>
-      </c>
-      <c r="C7">
-        <v>271.82</v>
       </c>
       <c r="D7">
         <v>271.82</v>
       </c>
       <c r="E7">
+        <v>271.82</v>
+      </c>
+      <c r="F7">
         <v>301.29</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10.68</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.28</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>332.06</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>57.22</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>79.02</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>211.12</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>120.94</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>332.06</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>29.47</v>
-      </c>
-      <c r="C8">
-        <v>287.94</v>
       </c>
       <c r="D8">
         <v>287.94</v>
       </c>
       <c r="E8">
+        <v>287.94</v>
+      </c>
+      <c r="F8">
         <v>317.41</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9.699999999999999</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21.74</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>345.9</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>68.79000000000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>86.81</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>215.38</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>130.51</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>345.9</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>29.47</v>
-      </c>
-      <c r="C9">
-        <v>302.88</v>
       </c>
       <c r="D9">
         <v>302.88</v>
       </c>
       <c r="E9">
+        <v>302.88</v>
+      </c>
+      <c r="F9">
         <v>332.36</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9.880000000000001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>44.03</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>384.18</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>91.97</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>109.4</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>311.85</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>72.31999999999999</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>384.18</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>29.47</v>
-      </c>
-      <c r="C10">
-        <v>328.95</v>
       </c>
       <c r="D10">
         <v>328.95</v>
       </c>
       <c r="E10">
+        <v>328.95</v>
+      </c>
+      <c r="F10">
         <v>358.43</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>46.42</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>411.78</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>98.84</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>118.66</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>316.64</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>95.14</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>411.78</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>29.47</v>
-      </c>
-      <c r="C11">
-        <v>361.61</v>
       </c>
       <c r="D11">
         <v>361.61</v>
       </c>
       <c r="E11">
+        <v>361.61</v>
+      </c>
+      <c r="F11">
         <v>391.09</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>17.79</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>50.73</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>500.98</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>95.01000000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>111.43</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>411.13</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>89.86</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>500.98</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>29.47</v>
-      </c>
-      <c r="C12">
-        <v>386.2</v>
       </c>
       <c r="D12">
         <v>386.2</v>
       </c>
       <c r="E12">
+        <v>386.2</v>
+      </c>
+      <c r="F12">
         <v>415.67</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>19.43</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>48.67</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>509.25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>90.62</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>107.34</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>423.04</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>86.20999999999999</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>509.25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>29.48</v>
-      </c>
-      <c r="C13">
-        <v>414.85</v>
       </c>
       <c r="D13">
         <v>414.85</v>
       </c>
       <c r="E13">
+        <v>414.85</v>
+      </c>
+      <c r="F13">
         <v>444.32</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>21.88</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>54.08</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>541.84</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>98.98</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>118.37</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>413.11</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>128.73</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>541.84</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>29.48</v>
-      </c>
-      <c r="C14">
-        <v>389.84</v>
       </c>
       <c r="D14">
         <v>389.84</v>
       </c>
       <c r="E14">
+        <v>389.84</v>
+      </c>
+      <c r="F14">
         <v>419.32</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>31.66</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>78.59</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>517.14</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>97.95999999999999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>115.53</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>367.21</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>149.93</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>517.14</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>29.48</v>
-      </c>
-      <c r="C15">
-        <v>417.77</v>
       </c>
       <c r="D15">
         <v>417.77</v>
       </c>
       <c r="E15">
+        <v>417.77</v>
+      </c>
+      <c r="F15">
         <v>447.24</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>7.31</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>87.34</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>562.62</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>94.48999999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>116.99</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>411.92</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>150.7</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>562.62</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>29.48</v>
-      </c>
-      <c r="C16">
-        <v>447.08</v>
       </c>
       <c r="D16">
         <v>447.08</v>
       </c>
       <c r="E16">
+        <v>447.08</v>
+      </c>
+      <c r="F16">
         <v>476.56</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>21.72</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>88.84999999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>579.49</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>90.7</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>110.03</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>403.25</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>176.25</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>579.49</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>29.48</v>
-      </c>
-      <c r="C17">
-        <v>470.82</v>
       </c>
       <c r="D17">
         <v>470.82</v>
       </c>
       <c r="E17">
+        <v>470.82</v>
+      </c>
+      <c r="F17">
         <v>500.29</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>25.21</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>128.36</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>648.3099999999999</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>92.33</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>136.81</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>384.93</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>263.38</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>648.3099999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>29.48</v>
-      </c>
-      <c r="C18">
-        <v>529.9400000000001</v>
       </c>
       <c r="D18">
         <v>529.9400000000001</v>
       </c>
       <c r="E18">
+        <v>529.9400000000001</v>
+      </c>
+      <c r="F18">
         <v>559.42</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>30.11</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>99.31999999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>678.49</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>95.72</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>126.13</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>380.95</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>297.54</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>678.49</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>29.48</v>
-      </c>
-      <c r="C19">
-        <v>642.5599999999999</v>
       </c>
       <c r="D19">
         <v>642.5599999999999</v>
       </c>
       <c r="E19">
+        <v>642.5599999999999</v>
+      </c>
+      <c r="F19">
         <v>672.04</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>38.51</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>136.92</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>833.84</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>90.59</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>123.48</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>392.56</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>441.28</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>833.84</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>29.48</v>
-      </c>
-      <c r="C20">
-        <v>738.02</v>
       </c>
       <c r="D20">
         <v>738.02</v>
       </c>
       <c r="E20">
+        <v>738.02</v>
+      </c>
+      <c r="F20">
         <v>767.5</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>40.34</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>107.52</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>904.3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>73.45</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>103.4</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>398.04</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>506.26</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>904.3</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>29.5</v>
-      </c>
-      <c r="C21">
-        <v>800.39</v>
       </c>
       <c r="D21">
         <v>800.39</v>
       </c>
       <c r="E21">
+        <v>800.39</v>
+      </c>
+      <c r="F21">
         <v>829.89</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>47.12</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>108.6</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>969.77</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>68.16</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>97.86</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>509.01</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>460.76</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>969.77</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>30.85</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12.53</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-86.06999999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>70.84</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-2.7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.29</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>29.61</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>13.16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1.63</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-11.45</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.08</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.29</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>21.79</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>31.69</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-15.72</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-12.7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.27</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.37</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6.64</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>17.12</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.02</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-10.21</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>-5.19</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6.64</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>32.65</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4.1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>17.97</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-8</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>14.06</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.44</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13.63</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>27.73</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>14.55</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>14.47</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-36.26</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-7.24</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>13.63</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.39</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>21.88</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6.34</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-1.12</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-8.31</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-3.1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.81</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.71</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>27.65</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>35.7</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-49.12</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>14.15</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.05</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.79</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.71</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>35.35</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>19.72</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-7.91</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-10.21</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.39</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3.89</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>48.43</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>29.67</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-67.89</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>38.28</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.34</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.29</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3.89</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>29.09</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>17.19</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>6.32</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-16.38</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-1.05</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6.09</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.6</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>9.69</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>41.12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>60.85</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-34.76</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-20.85</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-1.29</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.96</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9.69</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13.65</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>25.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>29.72</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-11.66</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-16.78</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-3.39</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-2.11</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>13.59</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>11.48</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>52.35</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>15.78</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-7.05</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-13.4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.99</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-3.68</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>11.48</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>39.24</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>36.22</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-11.77</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-25.72</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-1.27</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>7.8</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6.53</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>55.14</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>24.88</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-4.76</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13.9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>36.13</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>6.53</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>42.66</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>76.5</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>69.8</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-44.52</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-51.03</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-25.76</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>42.66</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>16.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>143.44</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2.63</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-19.26</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>21.37</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4.75</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>16.9</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>21.65</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>135.35</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>63.97</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3.1</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-51.72</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>15.35</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21.65</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>108.33</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-86.78</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-31.64</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-10.09</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>37.01</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>26.92</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>60.97</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>60.97</v>
@@ -2328,46 +2421,46 @@
         <v>60.97</v>
       </c>
       <c r="E2">
+        <v>60.97</v>
+      </c>
+      <c r="F2">
         <v>5.57</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>66.54000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.45</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>18.04</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.53</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7.38</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>35.69</v>
-      </c>
-      <c r="M2">
-        <v>30.85</v>
       </c>
       <c r="N2">
         <v>30.85</v>
       </c>
       <c r="O2">
+        <v>30.85</v>
+      </c>
+      <c r="P2">
         <v>0.65</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.15</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>30.36</v>
       </c>
       <c r="S2">
         <v>30.36</v>
@@ -2376,18 +2469,21 @@
         <v>30.36</v>
       </c>
       <c r="U2">
-        <v>7.48</v>
+        <v>30.36</v>
       </c>
       <c r="V2">
         <v>7.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>61.63</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>61.63</v>
@@ -2396,66 +2492,69 @@
         <v>61.63</v>
       </c>
       <c r="E3">
+        <v>61.63</v>
+      </c>
+      <c r="F3">
         <v>5.58</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>67.20999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8.23</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>23.83</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.13</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>7.53</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>44.19</v>
-      </c>
-      <c r="M3">
-        <v>23.02</v>
       </c>
       <c r="N3">
         <v>23.02</v>
       </c>
       <c r="O3">
+        <v>23.02</v>
+      </c>
+      <c r="P3">
         <v>0.51</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.12</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.85</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>22.17</v>
-      </c>
-      <c r="S3">
-        <v>28.75</v>
       </c>
       <c r="T3">
         <v>28.75</v>
       </c>
       <c r="U3">
-        <v>7.08</v>
+        <v>28.75</v>
       </c>
       <c r="V3">
         <v>7.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>68.42</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>68.42</v>
@@ -2464,66 +2563,69 @@
         <v>68.42</v>
       </c>
       <c r="E4">
+        <v>68.42</v>
+      </c>
+      <c r="F4">
         <v>5.85</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>74.27</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8.18</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>29.75</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.98</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8.92</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>52.53</v>
-      </c>
-      <c r="M4">
-        <v>21.74</v>
       </c>
       <c r="N4">
         <v>21.74</v>
       </c>
       <c r="O4">
+        <v>21.74</v>
+      </c>
+      <c r="P4">
         <v>0.36</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.44</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.03</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>20.71</v>
-      </c>
-      <c r="S4">
-        <v>20.75</v>
       </c>
       <c r="T4">
         <v>20.75</v>
       </c>
       <c r="U4">
-        <v>5.1</v>
+        <v>20.75</v>
       </c>
       <c r="V4">
         <v>5.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>67.44</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>67.44</v>
@@ -2532,66 +2634,69 @@
         <v>67.44</v>
       </c>
       <c r="E5">
+        <v>67.44</v>
+      </c>
+      <c r="F5">
         <v>7.78</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>75.23</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.61</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>37.1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4.38</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>9.02</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>58.14</v>
-      </c>
-      <c r="M5">
-        <v>17.08</v>
       </c>
       <c r="N5">
         <v>17.08</v>
       </c>
       <c r="O5">
+        <v>17.08</v>
+      </c>
+      <c r="P5">
         <v>1.92</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.85</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3.03</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>14.06</v>
-      </c>
-      <c r="S5">
-        <v>14.09</v>
       </c>
       <c r="T5">
         <v>14.09</v>
       </c>
       <c r="U5">
-        <v>3.46</v>
+        <v>14.09</v>
       </c>
       <c r="V5">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>159.18</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>159.18</v>
@@ -2600,46 +2705,46 @@
         <v>159.18</v>
       </c>
       <c r="E6">
+        <v>159.18</v>
+      </c>
+      <c r="F6">
         <v>9.75</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>168.93</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8.06</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>85.41</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.7</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7.46</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>30.64</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>136.28</v>
-      </c>
-      <c r="M6">
-        <v>32.65</v>
       </c>
       <c r="N6">
         <v>32.65</v>
       </c>
       <c r="O6">
+        <v>32.65</v>
+      </c>
+      <c r="P6">
         <v>3.47</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.65</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4.85</v>
-      </c>
-      <c r="R6">
-        <v>27.79</v>
       </c>
       <c r="S6">
         <v>27.79</v>
@@ -2648,18 +2753,21 @@
         <v>27.79</v>
       </c>
       <c r="U6">
-        <v>4.72</v>
+        <v>27.79</v>
       </c>
       <c r="V6">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>130.9</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>130.9</v>
@@ -2668,66 +2776,69 @@
         <v>130.9</v>
       </c>
       <c r="E7">
+        <v>130.9</v>
+      </c>
+      <c r="F7">
         <v>12.98</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>143.88</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7.07</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>74.68000000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.25</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6.24</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>24.07</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>116.19</v>
-      </c>
-      <c r="M7">
-        <v>27.69</v>
       </c>
       <c r="N7">
         <v>27.69</v>
       </c>
       <c r="O7">
+        <v>27.69</v>
+      </c>
+      <c r="P7">
         <v>4.42</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-0.16</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>4.25</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>23.44</v>
-      </c>
-      <c r="S7">
-        <v>24.33</v>
       </c>
       <c r="T7">
         <v>24.33</v>
       </c>
       <c r="U7">
-        <v>4.13</v>
+        <v>24.33</v>
       </c>
       <c r="V7">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>138.45</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>138.45</v>
@@ -2736,46 +2847,46 @@
         <v>138.45</v>
       </c>
       <c r="E8">
+        <v>138.45</v>
+      </c>
+      <c r="F8">
         <v>16.07</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>154.52</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>89.42</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.26</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5.32</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>37.53</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>132.64</v>
-      </c>
-      <c r="M8">
-        <v>21.88</v>
       </c>
       <c r="N8">
         <v>21.88</v>
       </c>
       <c r="O8">
+        <v>21.88</v>
+      </c>
+      <c r="P8">
         <v>3.4</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-0.28</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.62</v>
-      </c>
-      <c r="R8">
-        <v>21.26</v>
       </c>
       <c r="S8">
         <v>21.26</v>
@@ -2784,18 +2895,21 @@
         <v>21.26</v>
       </c>
       <c r="U8">
-        <v>3.61</v>
+        <v>21.26</v>
       </c>
       <c r="V8">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>163.88</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>163.88</v>
@@ -2804,46 +2918,46 @@
         <v>163.88</v>
       </c>
       <c r="E9">
+        <v>163.88</v>
+      </c>
+      <c r="F9">
         <v>9.08</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>172.97</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.51</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>95.54000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.66</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6.09</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>42.52</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>145.32</v>
-      </c>
-      <c r="M9">
-        <v>27.65</v>
       </c>
       <c r="N9">
         <v>27.65</v>
       </c>
       <c r="O9">
+        <v>27.65</v>
+      </c>
+      <c r="P9">
         <v>6.95</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>5.74</v>
-      </c>
-      <c r="R9">
-        <v>21.9</v>
       </c>
       <c r="S9">
         <v>21.9</v>
@@ -2852,18 +2966,21 @@
         <v>21.9</v>
       </c>
       <c r="U9">
-        <v>3.72</v>
+        <v>21.9</v>
       </c>
       <c r="V9">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>186.09</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>186.09</v>
@@ -2872,46 +2989,46 @@
         <v>186.09</v>
       </c>
       <c r="E10">
+        <v>186.09</v>
+      </c>
+      <c r="F10">
         <v>13.73</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>199.82</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.39</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>108.83</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.58</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6.89</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>45.78</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>164.46</v>
-      </c>
-      <c r="M10">
-        <v>35.35</v>
       </c>
       <c r="N10">
         <v>35.35</v>
       </c>
       <c r="O10">
+        <v>35.35</v>
+      </c>
+      <c r="P10">
         <v>6.46</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.46</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5.98</v>
-      </c>
-      <c r="R10">
-        <v>29.37</v>
       </c>
       <c r="S10">
         <v>29.37</v>
@@ -2920,18 +3037,21 @@
         <v>29.37</v>
       </c>
       <c r="U10">
-        <v>4.98</v>
+        <v>29.37</v>
       </c>
       <c r="V10">
         <v>4.98</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>203.93</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>203.93</v>
@@ -2940,46 +3060,46 @@
         <v>203.93</v>
       </c>
       <c r="E11">
+        <v>203.93</v>
+      </c>
+      <c r="F11">
         <v>18.45</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>222.37</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.19</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>110.33</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.63</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6.53</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>55.27</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>173.94</v>
-      </c>
-      <c r="M11">
-        <v>48.43</v>
       </c>
       <c r="N11">
         <v>48.43</v>
       </c>
       <c r="O11">
+        <v>48.43</v>
+      </c>
+      <c r="P11">
         <v>9.07</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>7.04</v>
-      </c>
-      <c r="R11">
-        <v>41.39</v>
       </c>
       <c r="S11">
         <v>41.39</v>
@@ -2988,18 +3108,21 @@
         <v>41.39</v>
       </c>
       <c r="U11">
-        <v>7.02</v>
+        <v>41.39</v>
       </c>
       <c r="V11">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>188.57</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>188.57</v>
@@ -3008,46 +3131,46 @@
         <v>188.57</v>
       </c>
       <c r="E12">
+        <v>188.57</v>
+      </c>
+      <c r="F12">
         <v>7.94</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>196.51</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>102</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5.12</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8.42</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>51.88</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>167.42</v>
-      </c>
-      <c r="M12">
-        <v>29.09</v>
       </c>
       <c r="N12">
         <v>29.09</v>
       </c>
       <c r="O12">
+        <v>29.09</v>
+      </c>
+      <c r="P12">
         <v>6.48</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-1.02</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3.75</v>
-      </c>
-      <c r="R12">
-        <v>25.34</v>
       </c>
       <c r="S12">
         <v>25.34</v>
@@ -3056,18 +3179,21 @@
         <v>25.34</v>
       </c>
       <c r="U12">
-        <v>4.3</v>
+        <v>25.34</v>
       </c>
       <c r="V12">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>281.61</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>281.61</v>
@@ -3076,66 +3202,69 @@
         <v>281.61</v>
       </c>
       <c r="E13">
+        <v>281.61</v>
+      </c>
+      <c r="F13">
         <v>11.71</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>293.32</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.62</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>165.13</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5.53</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>12.34</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>66.88</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>250.49</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>42.83</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>36.26</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>10.23</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2.78</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>8.77</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>27.49</v>
-      </c>
-      <c r="S13">
-        <v>32.35</v>
       </c>
       <c r="T13">
         <v>32.35</v>
       </c>
       <c r="U13">
-        <v>5.49</v>
+        <v>32.35</v>
       </c>
       <c r="V13">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>305.71</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>305.71</v>
@@ -3144,46 +3273,46 @@
         <v>305.71</v>
       </c>
       <c r="E14">
+        <v>305.71</v>
+      </c>
+      <c r="F14">
         <v>19.3</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>325.01</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.19</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>182.75</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.81</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>11.86</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>84.8</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>284.4</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>40.61</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>25.2</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>8.720000000000001</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-8.31</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.41</v>
-      </c>
-      <c r="R14">
-        <v>24.79</v>
       </c>
       <c r="S14">
         <v>24.79</v>
@@ -3192,18 +3321,21 @@
         <v>24.79</v>
       </c>
       <c r="U14">
-        <v>3.7</v>
+        <v>24.79</v>
       </c>
       <c r="V14">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>337.85</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>337.85</v>
@@ -3212,46 +3344,46 @@
         <v>337.85</v>
       </c>
       <c r="E15">
+        <v>337.85</v>
+      </c>
+      <c r="F15">
         <v>22.64</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>360.49</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4.94</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>200.07</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.44</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10.23</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>89.45999999999999</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>308.15</v>
-      </c>
-      <c r="M15">
-        <v>52.35</v>
       </c>
       <c r="N15">
         <v>52.35</v>
       </c>
       <c r="O15">
+        <v>52.35</v>
+      </c>
+      <c r="P15">
         <v>7.41</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>4.27</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>11.68</v>
-      </c>
-      <c r="R15">
-        <v>40.67</v>
       </c>
       <c r="S15">
         <v>40.67</v>
@@ -3260,18 +3392,21 @@
         <v>40.67</v>
       </c>
       <c r="U15">
-        <v>6.9</v>
+        <v>40.67</v>
       </c>
       <c r="V15">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>389.67</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>389.67</v>
@@ -3280,46 +3415,46 @@
         <v>389.67</v>
       </c>
       <c r="E16">
+        <v>389.67</v>
+      </c>
+      <c r="F16">
         <v>6.65</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>396.32</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.66</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>233.21</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.45</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>12.03</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>104.73</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>357.09</v>
-      </c>
-      <c r="M16">
-        <v>39.24</v>
       </c>
       <c r="N16">
         <v>39.24</v>
       </c>
       <c r="O16">
+        <v>39.24</v>
+      </c>
+      <c r="P16">
         <v>10.24</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-0.25</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10</v>
-      </c>
-      <c r="R16">
-        <v>29.24</v>
       </c>
       <c r="S16">
         <v>29.24</v>
@@ -3328,18 +3463,21 @@
         <v>29.24</v>
       </c>
       <c r="U16">
-        <v>4.96</v>
+        <v>29.24</v>
       </c>
       <c r="V16">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>469.82</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>469.82</v>
@@ -3348,46 +3486,46 @@
         <v>469.82</v>
       </c>
       <c r="E17">
+        <v>469.82</v>
+      </c>
+      <c r="F17">
         <v>15.58</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>485.4</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>9.970000000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>302.68</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.44</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>13.3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>101.87</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>430.26</v>
-      </c>
-      <c r="M17">
-        <v>55.14</v>
       </c>
       <c r="N17">
         <v>55.14</v>
       </c>
       <c r="O17">
+        <v>55.14</v>
+      </c>
+      <c r="P17">
         <v>10.62</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4.2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>14.83</v>
-      </c>
-      <c r="R17">
-        <v>40.31</v>
       </c>
       <c r="S17">
         <v>40.31</v>
@@ -3396,18 +3534,21 @@
         <v>40.31</v>
       </c>
       <c r="U17">
-        <v>6.84</v>
+        <v>40.31</v>
       </c>
       <c r="V17">
         <v>6.84</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>457.66</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>457.66</v>
@@ -3416,46 +3557,46 @@
         <v>457.66</v>
       </c>
       <c r="E18">
+        <v>457.66</v>
+      </c>
+      <c r="F18">
         <v>10.86</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>468.52</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.88</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>317.19</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2.93</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>13.25</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>89.65000000000001</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>424.89</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>43.63</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>76.5</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>9.07</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>11.12</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>20.19</v>
-      </c>
-      <c r="R18">
-        <v>56.31</v>
       </c>
       <c r="S18">
         <v>56.31</v>
@@ -3464,18 +3605,21 @@
         <v>56.31</v>
       </c>
       <c r="U18">
-        <v>9.550000000000001</v>
+        <v>56.31</v>
       </c>
       <c r="V18">
         <v>9.550000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>578.51</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>578.51</v>
@@ -3484,46 +3628,46 @@
         <v>578.51</v>
       </c>
       <c r="E19">
+        <v>578.51</v>
+      </c>
+      <c r="F19">
         <v>19.88</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>598.39</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.68</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>369.12</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.21</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>11.83</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>105.85</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>488.69</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>109.69</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>143.44</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>24.07</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>8.26</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>32.33</v>
-      </c>
-      <c r="R19">
-        <v>111.12</v>
       </c>
       <c r="S19">
         <v>111.12</v>
@@ -3532,18 +3676,21 @@
         <v>111.12</v>
       </c>
       <c r="U19">
-        <v>18.85</v>
+        <v>111.12</v>
       </c>
       <c r="V19">
         <v>18.85</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>18.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>733.27</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>733.27</v>
@@ -3552,46 +3699,46 @@
         <v>733.27</v>
       </c>
       <c r="E20">
+        <v>733.27</v>
+      </c>
+      <c r="F20">
         <v>28.8</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>762.0700000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.86</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>447.9</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.87</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>12.57</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>161.52</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>626.72</v>
-      </c>
-      <c r="M20">
-        <v>135.35</v>
       </c>
       <c r="N20">
         <v>135.35</v>
       </c>
       <c r="O20">
+        <v>135.35</v>
+      </c>
+      <c r="P20">
         <v>33.17</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-0.95</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>32.22</v>
-      </c>
-      <c r="R20">
-        <v>103.13</v>
       </c>
       <c r="S20">
         <v>103.13</v>
@@ -3600,18 +3747,21 @@
         <v>103.13</v>
       </c>
       <c r="U20">
-        <v>17.49</v>
+        <v>103.13</v>
       </c>
       <c r="V20">
         <v>17.49</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>17.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>735.35</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>735.35</v>
@@ -3620,46 +3770,46 @@
         <v>735.35</v>
       </c>
       <c r="E21">
+        <v>735.35</v>
+      </c>
+      <c r="F21">
         <v>30.29</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>765.64</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.77</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>501.6</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.62</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10.92</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>140.73</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>655.64</v>
-      </c>
-      <c r="M21">
-        <v>110</v>
       </c>
       <c r="N21">
         <v>110</v>
       </c>
       <c r="O21">
+        <v>110</v>
+      </c>
+      <c r="P21">
         <v>24.92</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-1.24</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>23.68</v>
-      </c>
-      <c r="R21">
-        <v>86.31999999999999</v>
       </c>
       <c r="S21">
         <v>86.31999999999999</v>
@@ -3668,9 +3818,12 @@
         <v>86.31999999999999</v>
       </c>
       <c r="U21">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="V21">
         <v>14.64</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>14.64</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>57.73</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>54.03</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>45.35</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>45.5</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>47.48</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>50.26</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>45.34</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>46.52</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>47.33</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>52.58</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>135.18</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>70.61</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>71</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>78.51000000000001</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>85.59</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>77.73999999999999</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>78.23</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>80.98999999999999</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>102.68</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>88.42</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>101.58</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>95.45999999999999</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>104.22</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>101.08</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>109.5</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>102.65</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>102.6</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>90</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>94.81</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>113.56</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>125.63</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>130.61</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>146.72</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>149.4</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>151.78</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>155.44</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>175.7</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>189.31</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>212.82</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>188.25</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>176.32</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>177.09</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>193.69</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>171.24</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>176.94</v>
@@ -6960,1003 +7113,1054 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>15.02</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8.25</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7.63</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.6</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7.48</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>54.92</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>50.77</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>50.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>49.78</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14.67</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>13.61</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>33.42</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>30.84</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>66.58</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>393.37</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>11.75</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>15.17</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.44</v>
-      </c>
-      <c r="D3">
-        <v>5.67</v>
       </c>
       <c r="E3">
         <v>5.67</v>
       </c>
       <c r="F3">
+        <v>5.67</v>
+      </c>
+      <c r="G3">
         <v>7.08</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>42.43</v>
-      </c>
-      <c r="H3">
-        <v>37.35</v>
       </c>
       <c r="I3">
         <v>37.35</v>
       </c>
       <c r="J3">
+        <v>37.35</v>
+      </c>
+      <c r="K3">
         <v>46.65</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>12.82</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11.85</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>35.31</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>31.84</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>64.69</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>257.79</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9.859999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>16.8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6.32</v>
-      </c>
-      <c r="D4">
-        <v>5.34</v>
       </c>
       <c r="E4">
         <v>5.34</v>
       </c>
       <c r="F4">
+        <v>5.34</v>
+      </c>
+      <c r="G4">
         <v>5.1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>37.6</v>
-      </c>
-      <c r="H4">
-        <v>31.77</v>
       </c>
       <c r="I4">
         <v>31.77</v>
       </c>
       <c r="J4">
+        <v>31.77</v>
+      </c>
+      <c r="K4">
         <v>30.32</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8.67</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.140000000000001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>29.43</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>24.69</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>70.56999999999999</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>207.33</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>8.06</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>16.56</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.27</v>
-      </c>
-      <c r="D5">
-        <v>4.2</v>
       </c>
       <c r="E5">
         <v>4.2</v>
       </c>
       <c r="F5">
+        <v>4.2</v>
+      </c>
+      <c r="G5">
         <v>3.46</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>31.82</v>
-      </c>
-      <c r="H5">
-        <v>25.33</v>
       </c>
       <c r="I5">
         <v>25.33</v>
       </c>
       <c r="J5">
+        <v>25.33</v>
+      </c>
+      <c r="K5">
         <v>20.88</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5.64</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5.3</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>21.67</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>16.53</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>78.33</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>114.18</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>5.32</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>27.02</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.93</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5.66</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.54</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4.72</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>25.63</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20.94</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17.45</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9.73</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7.75</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.03</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>26.5</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>20.89</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>73.5</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>101.06</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.48</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>22.2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4.74</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.7</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.13</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>26.11</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>21.35</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>21.15</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>18.58</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>8.07</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>7.32</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.01</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>30.28</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>24.1</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>69.72</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>178.8</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5.23</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>23.49</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4.66</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3.76</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3.71</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.61</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>19.83</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>15.99</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>15.8</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>15.35</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6.69</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>6.14</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.01</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>20.79</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>16.63</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>79.20999999999999</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>177.19</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>6.45</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>27.8</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.84</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4.8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4.69</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.72</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>20.98</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>17.27</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>16.86</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>13.36</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6.59</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5.7</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>20.18</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>15.79</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>79.81999999999999</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>180.03</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>5.23</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>31.57</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7.6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6.43</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.98</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>24.08</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>20.38</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>18.99</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>15.78</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8.19</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>7.13</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.06</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>20.06</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>16.25</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>79.94</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>167.62</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3.74</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>34.59</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>9.6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8.49</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>8.220000000000001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>7.02</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>27.75</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>24.54</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>23.75</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>20.29</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>10.58</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8.26</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.17</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>17.8</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>15.37</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>82.2</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>351.02</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>6.2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>31.99</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7.23</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5.8</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4.93</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4.3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>22.6</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18.14</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>15.42</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>13.43</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6.09</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4.97</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.12</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>23.26</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>17.46</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>76.73999999999999</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>438.02</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>10.27</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>47.77</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>10.3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>8.199999999999999</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6.15</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.49</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>21.55</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>17.16</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12.87</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>11.48</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7.28</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>5.97</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.1</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>13.66</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>9.890000000000001</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>86.34</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>346.9</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>5.72</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>51.86</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>9.550000000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>7.53</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4.27</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>18.4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>14.52</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>8.24</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8.1</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5.91</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4.79</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.05</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>7.15</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>4.84</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>92.84999999999999</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>756.84</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>13.45</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>57.31</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>11.2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>9.460000000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8.880000000000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6.9</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>19.54</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16.51</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>15.49</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>12.03</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>9.09</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>7.22</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.1</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>18.12</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>14.48</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>81.88</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>642.97</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>9.74</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>66.09999999999999</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>9.279999999999999</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>7.24</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6.66</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4.96</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>14.04</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10.95</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10.06</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7.5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>6.13</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>5.04</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.06</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>8.41</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>5.96</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>91.59</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>624.59</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>11.41</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>79.7</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>12.02</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>9.77</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>9.35</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6.84</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>15.08</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12.25</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>11.73</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>8.58</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>8.050000000000001</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>6.21</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.1</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>17.08</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>12.84</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>82.92</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>242.4</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3.42</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>77.64</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>10.14</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7.9</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>12.98</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9.550000000000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>13.06</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>10.17</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>16.71</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>12.3</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10.06</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8.289999999999999</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -7968,177 +8172,189 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>647.3</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>10.82</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>98.14</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>20.82</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>18.81</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>24.33</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>18.85</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>21.21</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>19.16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>24.79</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19.2</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>16.53</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>13.32</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.06</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>13.26</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>11.98</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>86.73999999999999</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1745.88</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>14.23</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>124.37</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>25.41</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>23.27</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>22.96</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>17.49</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20.42</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>18.71</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>18.45</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>14.06</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>13.43</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>11.4</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>7.14</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>6.36</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>92.86</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1617.59</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>10.8</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>124.64</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>20.6</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>18.75</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>18.64</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>14.63</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>16.52</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>15.04</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>14.95</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>11.73</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>10.4</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>8.9</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>34.52</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>30.64</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>65.48</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3088.84</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>25.41</v>
       </c>
     </row>
